--- a/vix.xlsx
+++ b/vix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansa1\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBD7766B-48AC-45C0-A2E7-88A5C0AD4BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF572B0-071D-4C69-9168-AFD3746B2CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{917E380F-07F9-44C5-A296-56BC8FAEA0CA}"/>
   </bookViews>
@@ -57,13 +57,7 @@
     <t>From January 1986</t>
   </si>
   <si>
-    <t>to January 2024</t>
-  </si>
-  <si>
     <t>S&amp;P 100</t>
-  </si>
-  <si>
-    <t>Mar 90 - Jan 24</t>
   </si>
   <si>
     <t>S&amp;P 500</t>
@@ -74,13 +68,19 @@
   <si>
     <t>VIXCLS</t>
   </si>
+  <si>
+    <t>to June 2024</t>
+  </si>
+  <si>
+    <t>Mar 90 - Jun 24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,7 +130,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322AF600-86B8-4D7B-A8B2-95FED4923D4E}">
-  <dimension ref="A1:B458"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="D456" sqref="D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4144,6 +4144,46 @@
         <v>13.39</v>
       </c>
     </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B459" s="2">
+        <v>13.980476190476191</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <v>45352</v>
+      </c>
+      <c r="B460" s="2">
+        <v>13.7875</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <v>45383</v>
+      </c>
+      <c r="B461" s="2">
+        <v>16.137727272727272</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B462" s="2">
+        <v>13.058695652173913</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B463" s="2">
+        <v>12.667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4154,7 +4194,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -4176,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4184,21 +4224,21 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
